--- a/aula02/atividade03_planilha_dinamica.xlsx
+++ b/aula02/atividade03_planilha_dinamica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Des\Documents\excel_avancado\aula02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA50D500-69FC-4B52-8D14-6A5B900583EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2EE320-32E4-4966-B77B-BFE12B275112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5835" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E279A422-E000-4A45-ACCD-21692EA8BBEE}"/>
   </bookViews>
@@ -17,14 +17,25 @@
     <sheet name="relatório" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_dadosA2I311" hidden="1">dados!$A$2:$I$31</definedName>
+    <definedName name="_xlcn.WorksheetConnection_dadosA2I31" hidden="1">dados!$A$2:$I$31</definedName>
+    <definedName name="SegmentaçãodeDados_Estado">#N/A</definedName>
+    <definedName name="SegmentaçãodeDados_Produtos">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="78" r:id="rId3"/>
-    <pivotCache cacheId="74" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId5"/>
+        <x14:slicerCache r:id="rId6"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -34,17 +45,6 @@
           <x15:modelTable id="Intervalo" name="Intervalo" connection="WorksheetConnection_dados!$A$2:$I$31"/>
         </x15:modelTables>
       </x15:dataModel>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -65,7 +65,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Intervalo" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_dadosA2I311"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_dadosA2I31"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="41">
   <si>
     <t>Produtos Eletrônicos</t>
   </si>
@@ -206,7 +206,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -394,7 +394,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -407,29 +407,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -464,6 +442,53 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -472,33 +497,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -523,6 +522,167 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Estado">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F05CC6E-F0E8-D6CF-FDF9-839BA6792F86}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Estado"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8562975" y="628650"/>
+              <a:ext cx="1828800" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Produtos">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{367A617B-2ACC-B818-DD87-A82FEB2A908F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Produtos"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6629400" y="762000"/>
+              <a:ext cx="1828800" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Des" refreshedDate="45138.676372222224" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="29" xr:uid="{9743A5FB-683B-499C-8880-8556686D8F8E}">
   <cacheSource type="worksheet">
@@ -530,7 +690,37 @@
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Pedido" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1001" maxValue="1029"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1001" maxValue="1029" count="29">
+        <n v="1001"/>
+        <n v="1002"/>
+        <n v="1003"/>
+        <n v="1004"/>
+        <n v="1005"/>
+        <n v="1006"/>
+        <n v="1007"/>
+        <n v="1008"/>
+        <n v="1009"/>
+        <n v="1010"/>
+        <n v="1011"/>
+        <n v="1012"/>
+        <n v="1013"/>
+        <n v="1014"/>
+        <n v="1015"/>
+        <n v="1016"/>
+        <n v="1017"/>
+        <n v="1018"/>
+        <n v="1019"/>
+        <n v="1020"/>
+        <n v="1021"/>
+        <n v="1022"/>
+        <n v="1023"/>
+        <n v="1024"/>
+        <n v="1025"/>
+        <n v="1026"/>
+        <n v="1027"/>
+        <n v="1028"/>
+        <n v="1029"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Região" numFmtId="0">
       <sharedItems count="5">
@@ -542,7 +732,17 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Estado" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="9">
+        <s v="GO"/>
+        <s v="SP"/>
+        <s v="RS"/>
+        <s v="BA"/>
+        <s v="RJ"/>
+        <s v="MG"/>
+        <s v="AM"/>
+        <s v="ES"/>
+        <s v="PR"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Produtos" numFmtId="0">
       <sharedItems count="7">
@@ -579,7 +779,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="2124230227"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -676,9 +876,9 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="29">
   <r>
-    <n v="1001"/>
     <x v="0"/>
-    <s v="GO"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <n v="4"/>
@@ -687,9 +887,9 @@
     <n v="33260"/>
   </r>
   <r>
-    <n v="1002"/>
     <x v="1"/>
-    <s v="SP"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <n v="4"/>
@@ -698,9 +898,9 @@
     <n v="220"/>
   </r>
   <r>
-    <n v="1003"/>
     <x v="2"/>
-    <s v="RS"/>
+    <x v="2"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="0"/>
     <n v="2"/>
@@ -709,9 +909,9 @@
     <n v="16630"/>
   </r>
   <r>
-    <n v="1004"/>
+    <x v="3"/>
     <x v="2"/>
-    <s v="RS"/>
+    <x v="2"/>
     <x v="2"/>
     <x v="1"/>
     <n v="1"/>
@@ -720,9 +920,9 @@
     <n v="1805"/>
   </r>
   <r>
-    <n v="1005"/>
+    <x v="4"/>
     <x v="1"/>
-    <s v="SP"/>
+    <x v="1"/>
     <x v="3"/>
     <x v="1"/>
     <n v="1"/>
@@ -731,9 +931,9 @@
     <n v="2960"/>
   </r>
   <r>
-    <n v="1006"/>
+    <x v="5"/>
     <x v="3"/>
-    <s v="BA"/>
+    <x v="3"/>
     <x v="4"/>
     <x v="1"/>
     <n v="4"/>
@@ -742,9 +942,9 @@
     <n v="12880"/>
   </r>
   <r>
-    <n v="1007"/>
+    <x v="6"/>
     <x v="1"/>
-    <s v="SP"/>
+    <x v="1"/>
     <x v="3"/>
     <x v="1"/>
     <n v="2"/>
@@ -753,9 +953,9 @@
     <n v="5920"/>
   </r>
   <r>
-    <n v="1008"/>
+    <x v="7"/>
     <x v="1"/>
-    <s v="RJ"/>
+    <x v="4"/>
     <x v="5"/>
     <x v="2"/>
     <n v="4"/>
@@ -764,9 +964,9 @@
     <n v="11400"/>
   </r>
   <r>
-    <n v="1009"/>
+    <x v="8"/>
     <x v="3"/>
-    <s v="BA"/>
+    <x v="3"/>
     <x v="3"/>
     <x v="2"/>
     <n v="5"/>
@@ -775,9 +975,9 @@
     <n v="14850"/>
   </r>
   <r>
-    <n v="1010"/>
+    <x v="9"/>
     <x v="1"/>
-    <s v="RJ"/>
+    <x v="4"/>
     <x v="4"/>
     <x v="2"/>
     <n v="1"/>
@@ -786,9 +986,9 @@
     <n v="3210"/>
   </r>
   <r>
-    <n v="1011"/>
+    <x v="10"/>
     <x v="1"/>
-    <s v="RJ"/>
+    <x v="4"/>
     <x v="6"/>
     <x v="2"/>
     <n v="1"/>
@@ -797,9 +997,9 @@
     <n v="3480"/>
   </r>
   <r>
-    <n v="1012"/>
+    <x v="11"/>
     <x v="0"/>
-    <s v="GO"/>
+    <x v="0"/>
     <x v="2"/>
     <x v="2"/>
     <n v="3"/>
@@ -808,9 +1008,9 @@
     <n v="5415"/>
   </r>
   <r>
-    <n v="1013"/>
+    <x v="12"/>
     <x v="1"/>
-    <s v="MG"/>
+    <x v="5"/>
     <x v="6"/>
     <x v="3"/>
     <n v="5"/>
@@ -819,9 +1019,9 @@
     <n v="17400"/>
   </r>
   <r>
-    <n v="1014"/>
+    <x v="13"/>
     <x v="4"/>
-    <s v="AM"/>
+    <x v="6"/>
     <x v="4"/>
     <x v="3"/>
     <n v="4"/>
@@ -830,9 +1030,9 @@
     <n v="12900"/>
   </r>
   <r>
-    <n v="1015"/>
+    <x v="14"/>
     <x v="1"/>
-    <s v="MG"/>
+    <x v="5"/>
     <x v="1"/>
     <x v="3"/>
     <n v="5"/>
@@ -841,9 +1041,9 @@
     <n v="275"/>
   </r>
   <r>
-    <n v="1016"/>
+    <x v="15"/>
     <x v="1"/>
-    <s v="ES"/>
+    <x v="7"/>
     <x v="2"/>
     <x v="3"/>
     <n v="4"/>
@@ -852,9 +1052,9 @@
     <n v="7200"/>
   </r>
   <r>
-    <n v="1017"/>
+    <x v="16"/>
     <x v="1"/>
-    <s v="ES"/>
+    <x v="7"/>
     <x v="1"/>
     <x v="3"/>
     <n v="1"/>
@@ -863,9 +1063,9 @@
     <n v="55"/>
   </r>
   <r>
-    <n v="1018"/>
+    <x v="17"/>
     <x v="2"/>
-    <s v="PR"/>
+    <x v="8"/>
     <x v="0"/>
     <x v="3"/>
     <n v="2"/>
@@ -874,9 +1074,9 @@
     <n v="16630"/>
   </r>
   <r>
-    <n v="1019"/>
+    <x v="18"/>
     <x v="2"/>
-    <s v="PR"/>
+    <x v="8"/>
     <x v="2"/>
     <x v="3"/>
     <n v="5"/>
@@ -885,9 +1085,9 @@
     <n v="9025"/>
   </r>
   <r>
-    <n v="1020"/>
+    <x v="19"/>
     <x v="2"/>
-    <s v="PR"/>
+    <x v="8"/>
     <x v="0"/>
     <x v="3"/>
     <n v="1"/>
@@ -896,9 +1096,9 @@
     <n v="8315"/>
   </r>
   <r>
-    <n v="1021"/>
+    <x v="20"/>
     <x v="1"/>
-    <s v="SP"/>
+    <x v="1"/>
     <x v="2"/>
     <x v="4"/>
     <n v="5"/>
@@ -907,9 +1107,9 @@
     <n v="9000"/>
   </r>
   <r>
-    <n v="1022"/>
+    <x v="21"/>
     <x v="1"/>
-    <s v="SP"/>
+    <x v="1"/>
     <x v="4"/>
     <x v="4"/>
     <n v="1"/>
@@ -918,9 +1118,9 @@
     <n v="3210"/>
   </r>
   <r>
-    <n v="1023"/>
+    <x v="22"/>
     <x v="2"/>
-    <s v="RS"/>
+    <x v="2"/>
     <x v="6"/>
     <x v="4"/>
     <n v="2"/>
@@ -929,9 +1129,9 @@
     <n v="6970"/>
   </r>
   <r>
-    <n v="1024"/>
+    <x v="23"/>
     <x v="1"/>
-    <s v="SP"/>
+    <x v="1"/>
     <x v="2"/>
     <x v="4"/>
     <n v="5"/>
@@ -940,9 +1140,9 @@
     <n v="9000"/>
   </r>
   <r>
-    <n v="1025"/>
+    <x v="24"/>
     <x v="1"/>
-    <s v="RJ"/>
+    <x v="4"/>
     <x v="2"/>
     <x v="4"/>
     <n v="5"/>
@@ -951,9 +1151,9 @@
     <n v="9000"/>
   </r>
   <r>
-    <n v="1026"/>
+    <x v="25"/>
     <x v="1"/>
-    <s v="RJ"/>
+    <x v="4"/>
     <x v="6"/>
     <x v="4"/>
     <n v="3"/>
@@ -962,9 +1162,9 @@
     <n v="10440"/>
   </r>
   <r>
-    <n v="1027"/>
+    <x v="26"/>
     <x v="1"/>
-    <s v="MG"/>
+    <x v="5"/>
     <x v="2"/>
     <x v="4"/>
     <n v="3"/>
@@ -973,9 +1173,9 @@
     <n v="5400"/>
   </r>
   <r>
-    <n v="1028"/>
+    <x v="27"/>
     <x v="1"/>
-    <s v="MG"/>
+    <x v="5"/>
     <x v="0"/>
     <x v="4"/>
     <n v="1"/>
@@ -984,9 +1184,9 @@
     <n v="8310"/>
   </r>
   <r>
-    <n v="1029"/>
+    <x v="28"/>
     <x v="3"/>
-    <s v="BA"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="4"/>
     <n v="3"/>
@@ -998,40 +1198,58 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{60E7DC8F-EBD5-4EF2-8C69-711F44A9A38E}" name="Tabela dinâmica7" cacheId="78" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A24:B30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8A558DFF-D10A-4D33-93F0-6DD9B5A17D1B}" name="Tabela dinâmica6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="E15:F19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="6">
         <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
         <item x="1"/>
         <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="6"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="8">
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="4"/>
+        <item x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField numFmtId="44" showAll="0"/>
     <pivotField numFmtId="44" showAll="0"/>
     <pivotField numFmtId="44" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="4"/>
+    <field x="1"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="4">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
     </i>
     <i>
       <x v="3"/>
@@ -1062,77 +1280,37 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8A558DFF-D10A-4D33-93F0-6DD9B5A17D1B}" name="Tabela dinâmica6" cacheId="78" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="E15:F21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9E621E3-1184-4A92-9A3F-B20439FFF896}" name="Tabela dinâmica5" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A15:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="6"/>
+        <item x="3"/>
+        <item x="7"/>
         <item x="0"/>
-        <item x="3"/>
+        <item x="5"/>
+        <item x="8"/>
         <item x="4"/>
+        <item x="2"/>
         <item x="1"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de N° vendas" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9E621E3-1184-4A92-9A3F-B20439FFF896}" name="Tabela dinâmica5" cacheId="78" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A15:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="8">
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="4"/>
+        <item x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
       <items count="6">
         <item x="0"/>
@@ -1151,15 +1329,9 @@
   <rowFields count="1">
     <field x="4"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="4">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
     </i>
     <i>
       <x v="3"/>
@@ -1189,8 +1361,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7EAAE0A9-C901-4587-8E68-D697DCE40B67}" name="Tabela dinâmica4" cacheId="74" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7EAAE0A9-C901-4587-8E68-D697DCE40B67}" name="Tabela dinâmica4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="E4:F12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -1278,22 +1450,68 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AA8A06DE-FCCB-45D5-ABA6-5D9147D22ED3}" name="Tabela dinâmica2" cacheId="78" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AA8A06DE-FCCB-45D5-ABA6-5D9147D22ED3}" name="Tabela dinâmica2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
+    <pivotField showAll="0">
+      <items count="30">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="6"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="8">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="4"/>
         <item x="0"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="6"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1306,27 +1524,9 @@
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
+  <rowItems count="2">
     <i>
       <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
     </i>
     <i t="grand">
       <x/>
@@ -1348,6 +1548,145 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{60E7DC8F-EBD5-4EF2-8C69-711F44A9A38E}" name="Tabela dinâmica7" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A24:B28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="6"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="8">
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="4"/>
+        <item x="0"/>
+        <item h="1" x="3"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de N° vendas" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Estado" xr10:uid="{35661264-667B-4D13-9C7C-072B306ECDEF}" sourceName="Estado">
+  <pivotTables>
+    <pivotTable tabId="3" name="Tabela dinâmica2"/>
+    <pivotTable tabId="3" name="Tabela dinâmica5"/>
+    <pivotTable tabId="3" name="Tabela dinâmica6"/>
+    <pivotTable tabId="3" name="Tabela dinâmica7"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="2124230227">
+      <items count="9">
+        <i x="0" s="1"/>
+        <i x="5" s="1"/>
+        <i x="8" s="1"/>
+        <i x="2" s="1"/>
+        <i x="6" s="1" nd="1"/>
+        <i x="3" s="1" nd="1"/>
+        <i x="7" s="1" nd="1"/>
+        <i x="4" s="1" nd="1"/>
+        <i x="1" s="1" nd="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Produtos" xr10:uid="{64B3630D-3DEB-4F51-9739-B071ABFDED87}" sourceName="Produtos">
+  <pivotTables>
+    <pivotTable tabId="3" name="Tabela dinâmica2"/>
+    <pivotTable tabId="3" name="Tabela dinâmica5"/>
+    <pivotTable tabId="3" name="Tabela dinâmica6"/>
+    <pivotTable tabId="3" name="Tabela dinâmica7"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="2124230227">
+      <items count="7">
+        <i x="2"/>
+        <i x="1"/>
+        <i x="4"/>
+        <i x="0" s="1"/>
+        <i x="3"/>
+        <i x="5"/>
+        <i x="6"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Estado" xr10:uid="{5899CBC5-1FEE-4D07-BC62-D84A4DE117A6}" cache="SegmentaçãodeDados_Estado" caption="Estado" rowHeight="241300"/>
+  <slicer name="Produtos" xr10:uid="{B1B67DC8-7110-489E-9326-1CC615EBB1C6}" cache="SegmentaçãodeDados_Produtos" caption="Produtos" rowHeight="241300"/>
+</slicers>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1671,17 +2010,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="14"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="32"/>
     </row>
     <row r="2" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1711,39 +2050,39 @@
       <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="9"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="9">
         <v>1001</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="11">
         <v>44882</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="10">
         <v>4</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="12">
         <f>VLOOKUP(D3,$K$3:$L$9,2,0)</f>
         <v>8300</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="12">
         <f>VLOOKUP(B3,$K$12:$L$16,2,0)</f>
         <v>15</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="13">
         <f>(G3+H3)*F3</f>
         <v>33260</v>
       </c>
@@ -1753,43 +2092,43 @@
       <c r="L3" s="7">
         <v>45</v>
       </c>
-      <c r="N3" s="32" t="s">
+      <c r="N3" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="32"/>
-      <c r="Q3" s="32" t="s">
+      <c r="O3" s="29"/>
+      <c r="Q3" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="32"/>
+      <c r="R3" s="29"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="A4" s="14">
         <v>1002</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="11">
         <v>44882</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="10">
         <v>4</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="12">
         <f t="shared" ref="G4:G31" si="0">VLOOKUP(D4,$K$3:$L$9,2,0)</f>
         <v>45</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="12">
         <f t="shared" ref="H4:H31" si="1">VLOOKUP(B4,$K$12:$L$16,2,0)</f>
         <v>10</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="13">
         <f t="shared" ref="I4:I31" si="2">(G4+H4)*F4</f>
         <v>220</v>
       </c>
@@ -1799,14 +2138,14 @@
       <c r="L4" s="7">
         <v>1790</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="20" t="s">
         <v>14</v>
       </c>
       <c r="O4" s="7">
         <f>SUMIF($D$3:D31,N4,$I$3:$I$31)</f>
         <v>745</v>
       </c>
-      <c r="Q4" s="31" t="s">
+      <c r="Q4" s="20" t="s">
         <v>14</v>
       </c>
       <c r="R4" s="3">
@@ -1815,33 +2154,33 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="10">
         <v>1003</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="11">
         <v>44882</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="10">
         <v>2</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="12">
         <f t="shared" si="0"/>
         <v>8300</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="12">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="13">
         <f t="shared" si="2"/>
         <v>16630</v>
       </c>
@@ -1851,14 +2190,14 @@
       <c r="L5" s="7">
         <v>3200</v>
       </c>
-      <c r="N5" s="31" t="s">
+      <c r="N5" s="20" t="s">
         <v>17</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">SUMIF($D$3:D32,N5,$I$3:I$31)</f>
         <v>55845</v>
       </c>
-      <c r="Q5" s="31" t="s">
+      <c r="Q5" s="20" t="s">
         <v>17</v>
       </c>
       <c r="R5" s="3">
@@ -1867,33 +2206,33 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="10">
         <v>1004</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="11">
         <v>44883</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="10">
         <v>1</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="12">
         <f t="shared" si="0"/>
         <v>1790</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="12">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="13">
         <f t="shared" si="2"/>
         <v>1805</v>
       </c>
@@ -1903,14 +2242,14 @@
       <c r="L6" s="7">
         <v>2950</v>
       </c>
-      <c r="N6" s="31" t="s">
+      <c r="N6" s="20" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">SUMIF($D$3:D33,N6,$I$3:I$31)</f>
         <v>32200</v>
       </c>
-      <c r="Q6" s="31" t="s">
+      <c r="Q6" s="20" t="s">
         <v>21</v>
       </c>
       <c r="R6" s="3">
@@ -1919,33 +2258,33 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="A7" s="15">
         <v>1005</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="11">
         <v>44883</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="10">
         <v>1</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="12">
         <f t="shared" si="0"/>
         <v>2950</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="12">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="13">
         <f t="shared" si="2"/>
         <v>2960</v>
       </c>
@@ -1955,14 +2294,14 @@
       <c r="L7" s="7">
         <v>2840</v>
       </c>
-      <c r="N7" s="31" t="s">
+      <c r="N7" s="20" t="s">
         <v>18</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">SUMIF($D$3:D34,N7,$I$3:I$31)</f>
         <v>23730</v>
       </c>
-      <c r="Q7" s="31" t="s">
+      <c r="Q7" s="20" t="s">
         <v>18</v>
       </c>
       <c r="R7" s="3">
@@ -1971,33 +2310,33 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="10">
         <v>1006</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="11">
         <v>44883</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="10">
         <v>4</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="12">
         <f t="shared" si="0"/>
         <v>3200</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="12">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="13">
         <f t="shared" si="2"/>
         <v>12880</v>
       </c>
@@ -2007,14 +2346,14 @@
       <c r="L8" s="7">
         <v>3470</v>
       </c>
-      <c r="N8" s="31" t="s">
+      <c r="N8" s="20" t="s">
         <v>23</v>
       </c>
       <c r="O8" s="7">
         <f ca="1">SUMIF($D$3:D35,N8,$I$3:I$31)</f>
         <v>11400</v>
       </c>
-      <c r="Q8" s="31" t="s">
+      <c r="Q8" s="20" t="s">
         <v>23</v>
       </c>
       <c r="R8" s="3">
@@ -2023,33 +2362,33 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="10">
         <v>1007</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="11">
         <v>44883</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="10">
         <v>2</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="12">
         <f t="shared" si="0"/>
         <v>2950</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="12">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="13">
         <f t="shared" si="2"/>
         <v>5920</v>
       </c>
@@ -2059,14 +2398,14 @@
       <c r="L9" s="5">
         <v>8300</v>
       </c>
-      <c r="N9" s="31" t="s">
+      <c r="N9" s="20" t="s">
         <v>24</v>
       </c>
       <c r="O9" s="7">
         <f ca="1">SUMIF($D$3:D36,N9,$I$3:I$31)</f>
         <v>38290</v>
       </c>
-      <c r="Q9" s="31" t="s">
+      <c r="Q9" s="20" t="s">
         <v>24</v>
       </c>
       <c r="R9" s="3">
@@ -2075,44 +2414,44 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+      <c r="A10" s="10">
         <v>1008</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="11">
         <v>44884</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="10">
         <v>4</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="12">
         <f t="shared" si="0"/>
         <v>2840</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="12">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="13">
         <f t="shared" si="2"/>
         <v>11400</v>
       </c>
-      <c r="N10" s="31" t="s">
+      <c r="N10" s="20" t="s">
         <v>11</v>
       </c>
       <c r="O10" s="7">
         <f ca="1">SUMIF($D$3:D37,N10,$I$3:I$31)</f>
         <v>83145</v>
       </c>
-      <c r="Q10" s="31" t="s">
+      <c r="Q10" s="20" t="s">
         <v>11</v>
       </c>
       <c r="R10" s="3">
@@ -2121,69 +2460,69 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="A11" s="14">
         <v>1009</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="11">
         <v>44884</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="10">
         <v>5</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="12">
         <f t="shared" si="0"/>
         <v>2950</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="12">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="13">
         <f t="shared" si="2"/>
         <v>14850</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="11"/>
+      <c r="L11" s="36"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="10">
         <v>1010</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="11">
         <v>44884</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="10">
         <v>1</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="12">
         <f>VLOOKUP(D12,$K$3:$L$9,2,0)</f>
         <v>3200</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="12">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="13">
         <f t="shared" si="2"/>
         <v>3210</v>
       </c>
@@ -2193,43 +2532,43 @@
       <c r="L12" s="7">
         <v>15</v>
       </c>
-      <c r="N12" s="32" t="s">
+      <c r="N12" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="O12" s="32"/>
-      <c r="Q12" s="32" t="s">
+      <c r="O12" s="29"/>
+      <c r="Q12" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="R12" s="32"/>
+      <c r="R12" s="29"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="A13" s="10">
         <v>1011</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="11">
         <v>44884</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="10">
         <v>1</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="12">
         <f t="shared" si="0"/>
         <v>3470</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="12">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="13">
         <f t="shared" si="2"/>
         <v>3480</v>
       </c>
@@ -2239,49 +2578,49 @@
       <c r="L13" s="6">
         <v>20</v>
       </c>
-      <c r="N13" s="33">
+      <c r="N13" s="21">
         <v>44882</v>
       </c>
       <c r="O13" s="7">
         <f>SUMIF($E$3:$E$31,N13,$I$3:$I$31)</f>
         <v>50110</v>
       </c>
-      <c r="Q13" s="27" t="s">
+      <c r="Q13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="R13" s="37">
+      <c r="R13" s="25">
         <f>SUMIF($B$3:$B$31,Q13,$F$3:F31)</f>
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+      <c r="A14" s="10">
         <v>1012</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="11">
         <v>44884</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="10">
         <v>3</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="12">
         <f t="shared" si="0"/>
         <v>1790</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="12">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="13">
         <f t="shared" si="2"/>
         <v>5415</v>
       </c>
@@ -2291,49 +2630,49 @@
       <c r="L14" s="6">
         <v>25</v>
       </c>
-      <c r="N14" s="33">
+      <c r="N14" s="21">
         <v>44883</v>
       </c>
       <c r="O14" s="7">
         <f t="shared" ref="O14:O17" si="3">SUMIF($E$3:$E$31,N14,$I$3:$I$31)</f>
         <v>23565</v>
       </c>
-      <c r="Q14" s="27" t="s">
+      <c r="Q14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="R14" s="37">
+      <c r="R14" s="25">
         <f>SUMIF($B$3:$B$31,Q14,$F$3:F32)</f>
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
+      <c r="A15" s="10">
         <v>1013</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="11">
         <v>44885</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="10">
         <v>5</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="12">
         <f t="shared" si="0"/>
         <v>3470</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="12">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="13">
         <f t="shared" si="2"/>
         <v>17400</v>
       </c>
@@ -2343,49 +2682,49 @@
       <c r="L15" s="7">
         <v>15</v>
       </c>
-      <c r="N15" s="33">
+      <c r="N15" s="21">
         <v>44884</v>
       </c>
       <c r="O15" s="7">
         <f t="shared" si="3"/>
         <v>38355</v>
       </c>
-      <c r="Q15" s="27" t="s">
+      <c r="Q15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="R15" s="37">
+      <c r="R15" s="25">
         <f>SUMIF($B$3:$B$31,Q15,$F$3:F33)</f>
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
+      <c r="A16" s="15">
         <v>1014</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="11">
         <v>44885</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="10">
         <v>4</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="12">
         <f>VLOOKUP(D16,$K$3:$L$9,2,0)</f>
         <v>3200</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="12">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="13">
         <f t="shared" si="2"/>
         <v>12900</v>
       </c>
@@ -2395,568 +2734,552 @@
       <c r="L16" s="7">
         <v>10</v>
       </c>
-      <c r="N16" s="33">
+      <c r="N16" s="21">
         <v>44885</v>
       </c>
       <c r="O16" s="7">
         <f t="shared" si="3"/>
         <v>71800</v>
       </c>
-      <c r="Q16" s="27" t="s">
+      <c r="Q16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="R16" s="37">
+      <c r="R16" s="25">
         <f>SUMIF($B$3:$B$31,Q16,$F$3:F34)</f>
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
+      <c r="A17" s="14">
         <v>1015</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="11">
         <v>44885</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="10">
         <v>5</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="12">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="12">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="13">
         <f t="shared" si="2"/>
         <v>275</v>
       </c>
-      <c r="N17" s="35">
+      <c r="N17" s="23">
         <v>44886</v>
       </c>
       <c r="O17" s="7">
         <f t="shared" si="3"/>
         <v>61525</v>
       </c>
-      <c r="Q17" s="27" t="s">
+      <c r="Q17" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="R17" s="37">
+      <c r="R17" s="25">
         <f>SUMIF($B$3:$B$31,Q17,$F$3:F35)</f>
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+      <c r="A18" s="10">
         <v>1016</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="11">
         <v>44885</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="10">
         <v>4</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="12">
         <f t="shared" si="0"/>
         <v>1790</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="12">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="13">
         <f t="shared" si="2"/>
         <v>7200</v>
       </c>
-      <c r="M18" s="16"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="16"/>
+      <c r="N18" s="22"/>
+      <c r="Q18" s="24"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
+      <c r="A19" s="14">
         <v>1017</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="11">
         <v>44885</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="10">
         <v>1</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="12">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="12">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="13">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="M19" s="16"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="16"/>
+      <c r="N19" s="22"/>
+      <c r="Q19" s="24"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+      <c r="A20" s="10">
         <v>1018</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="11">
         <v>44885</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="10">
         <v>2</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="12">
         <f t="shared" si="0"/>
         <v>8300</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="12">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="13">
         <f t="shared" si="2"/>
         <v>16630</v>
       </c>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+      <c r="A21" s="10">
         <v>1019</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="11">
         <v>44885</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="10">
         <v>5</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="12">
         <f t="shared" si="0"/>
         <v>1790</v>
       </c>
-      <c r="H21" s="20">
+      <c r="H21" s="12">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="13">
         <f t="shared" si="2"/>
         <v>9025</v>
       </c>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
+      <c r="A22" s="16">
         <v>1020</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="11">
         <v>44885</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="10">
         <v>1</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="12">
         <f t="shared" si="0"/>
         <v>8300</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="12">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="13">
         <f t="shared" si="2"/>
         <v>8315</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
+      <c r="A23" s="10">
         <v>1021</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="11">
         <v>44886</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="10">
         <v>5</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="12">
         <f t="shared" si="0"/>
         <v>1790</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="12">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23" s="13">
         <f t="shared" si="2"/>
         <v>9000</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
+      <c r="A24" s="9">
         <v>1022</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="11">
         <v>44886</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="10">
         <v>1</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="12">
         <f>VLOOKUP(D24,$K$3:$L$9,2,0)</f>
         <v>3200</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="12">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="13">
         <f t="shared" si="2"/>
         <v>3210</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="23">
+      <c r="A25" s="15">
         <v>1023</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="11">
         <v>44886</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="10">
         <v>2</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G25" s="12">
         <f t="shared" si="0"/>
         <v>3470</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="12">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="13">
         <f t="shared" si="2"/>
         <v>6970</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="18">
+      <c r="A26" s="10">
         <v>1024</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="11">
         <v>44886</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="10">
         <v>5</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="12">
         <f t="shared" si="0"/>
         <v>1790</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="12">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="13">
         <f t="shared" si="2"/>
         <v>9000</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="18">
+      <c r="A27" s="10">
         <v>1025</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="11">
         <v>44886</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="10">
         <v>5</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G27" s="12">
         <f t="shared" si="0"/>
         <v>1790</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="12">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27" s="13">
         <f t="shared" si="2"/>
         <v>9000</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="18">
+      <c r="A28" s="10">
         <v>1026</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="11">
         <v>44886</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="10">
         <v>3</v>
       </c>
-      <c r="G28" s="20">
+      <c r="G28" s="12">
         <f t="shared" si="0"/>
         <v>3470</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="12">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="13">
         <f t="shared" si="2"/>
         <v>10440</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="18">
+      <c r="A29" s="10">
         <v>1027</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="11">
         <v>44886</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="10">
         <v>3</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="12">
         <f t="shared" si="0"/>
         <v>1790</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="12">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I29" s="13">
         <f t="shared" si="2"/>
         <v>5400</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="18">
+      <c r="A30" s="10">
         <v>1028</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="11">
         <v>44886</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="10">
         <v>1</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G30" s="12">
         <f t="shared" si="0"/>
         <v>8300</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="12">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="13">
         <f t="shared" si="2"/>
         <v>8310</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="18">
+      <c r="A31" s="10">
         <v>1029</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="11">
         <v>44886</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="10">
         <v>3</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G31" s="12">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="12">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="13">
         <f t="shared" si="2"/>
         <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="25" t="s">
+      <c r="A32" s="37"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I32" s="26">
+      <c r="I32" s="18">
         <f>SUM(I3:I31)</f>
         <v>245355</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N12:O12"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="K11:L11"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N12:O12"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2965,16 +3288,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9852968D-266E-4E71-99D5-2DFA024144B9}">
-  <dimension ref="A3:F30"/>
+  <dimension ref="A3:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.140625" customWidth="1"/>
     <col min="7" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -2984,7 +3307,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="26" t="s">
         <v>37</v>
       </c>
       <c r="B3" t="s">
@@ -2992,13 +3315,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="38">
-        <v>55845</v>
-      </c>
-      <c r="E4" s="39" t="s">
+      <c r="A4" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="40">
+        <v>83145</v>
+      </c>
+      <c r="E4" s="26" t="s">
         <v>37</v>
       </c>
       <c r="F4" t="s">
@@ -3006,119 +3329,83 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="40">
+        <v>83145</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="38">
-        <v>745</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="38">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="F6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="38">
-        <v>32200</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="38">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="F7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="38">
-        <v>83145</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="38">
+      <c r="F8">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="38">
-        <v>23730</v>
-      </c>
-      <c r="E8" s="40" t="s">
+      <c r="F9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11">
         <v>11</v>
       </c>
-      <c r="F8" s="38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="38">
-        <v>11400</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="38">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="38">
-        <v>38290</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="38">
-        <v>245355</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="38">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E12" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="38">
+      <c r="F12">
         <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="26" t="s">
         <v>37</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="26" t="s">
         <v>37</v>
       </c>
       <c r="F15" t="s">
@@ -3126,91 +3413,63 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="41">
+      <c r="A16" s="28">
         <v>44882</v>
       </c>
-      <c r="B16" s="38">
-        <v>50110</v>
-      </c>
-      <c r="E16" s="40" t="s">
+      <c r="B16" s="40">
+        <v>49890</v>
+      </c>
+      <c r="E16" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="38">
-        <v>7</v>
+      <c r="F16" s="40">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="41">
-        <v>44883</v>
-      </c>
-      <c r="B17" s="38">
-        <v>23565</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="38">
+      <c r="A17" s="28">
+        <v>44885</v>
+      </c>
+      <c r="B17" s="40">
+        <v>24945</v>
+      </c>
+      <c r="E17" s="27" t="s">
         <v>12</v>
       </c>
+      <c r="F17" s="40">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="41">
-        <v>44884</v>
-      </c>
-      <c r="B18" s="38">
-        <v>38355</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="38">
-        <v>4</v>
+      <c r="A18" s="28">
+        <v>44886</v>
+      </c>
+      <c r="B18" s="40">
+        <v>8310</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="40">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="41">
-        <v>44885</v>
-      </c>
-      <c r="B19" s="38">
-        <v>71800</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="38">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="41">
-        <v>44886</v>
-      </c>
-      <c r="B20" s="38">
-        <v>61525</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="38">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
+      <c r="A19" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="38">
-        <v>245355</v>
-      </c>
-      <c r="E21" s="40" t="s">
+      <c r="B19" s="40">
+        <v>83145</v>
+      </c>
+      <c r="E19" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="38">
-        <v>87</v>
+      <c r="F19" s="40">
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="26" t="s">
         <v>37</v>
       </c>
       <c r="B24" t="s">
@@ -3218,55 +3477,47 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="41">
+      <c r="A25" s="28">
         <v>44882</v>
       </c>
-      <c r="B25" s="38">
+      <c r="B25" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="28">
+        <v>44885</v>
+      </c>
+      <c r="B26" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="28">
+        <v>44886</v>
+      </c>
+      <c r="B27" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="40">
         <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="41">
-        <v>44883</v>
-      </c>
-      <c r="B26" s="38">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="41">
-        <v>44884</v>
-      </c>
-      <c r="B27" s="38">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="41">
-        <v>44885</v>
-      </c>
-      <c r="B28" s="38">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="41">
-        <v>44886</v>
-      </c>
-      <c r="B29" s="38">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="38">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId8"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/aula02/atividade03_planilha_dinamica.xlsx
+++ b/aula02/atividade03_planilha_dinamica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Des\Documents\excel_avancado\aula02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2EE320-32E4-4966-B77B-BFE12B275112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02697E83-5D13-4BE5-848D-84141BCA6876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5835" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E279A422-E000-4A45-ACCD-21692EA8BBEE}"/>
   </bookViews>
@@ -17,13 +17,13 @@
     <sheet name="relatório" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_dadosA2I31" hidden="1">dados!$A$2:$I$31</definedName>
+    <definedName name="_xlcn.WorksheetConnection_dadosA2I311" hidden="1">dados!$A$2:$I$31</definedName>
     <definedName name="SegmentaçãodeDados_Estado">#N/A</definedName>
     <definedName name="SegmentaçãodeDados_Produtos">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
     <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
@@ -65,7 +65,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Intervalo" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_dadosA2I31"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_dadosA2I311"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="41">
   <si>
     <t>Produtos Eletrônicos</t>
   </si>
@@ -464,6 +464,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -487,15 +496,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -537,8 +537,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Estado">
@@ -561,7 +561,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -615,8 +615,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Produtos">
@@ -639,7 +639,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -1198,90 +1198,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8A558DFF-D10A-4D33-93F0-6DD9B5A17D1B}" name="Tabela dinâmica6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="E15:F19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="10">
-        <item x="6"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="8">
-        <item h="1" x="2"/>
-        <item h="1" x="1"/>
-        <item h="1" x="4"/>
-        <item x="0"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de N° vendas" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9E621E3-1184-4A92-9A3F-B20439FFF896}" name="Tabela dinâmica5" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A15:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A9E621E3-1184-4A92-9A3F-B20439FFF896}" name="Tabela dinâmica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A15:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -1301,13 +1219,13 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="8">
-        <item h="1" x="2"/>
-        <item h="1" x="1"/>
-        <item h="1" x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
         <item x="0"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1329,9 +1247,15 @@
   <rowFields count="1">
     <field x="4"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="6">
     <i>
       <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
     </i>
     <i>
       <x v="3"/>
@@ -1361,7 +1285,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7EAAE0A9-C901-4587-8E68-D697DCE40B67}" name="Tabela dinâmica4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="E4:F12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
@@ -1450,9 +1374,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AA8A06DE-FCCB-45D5-ABA6-5D9147D22ED3}" name="Tabela dinâmica2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AA8A06DE-FCCB-45D5-ABA6-5D9147D22ED3}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
       <items count="30">
@@ -1505,13 +1429,13 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="8">
-        <item h="1" x="2"/>
-        <item h="1" x="1"/>
-        <item h="1" x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
         <item x="0"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1524,9 +1448,27 @@
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <rowItems count="2">
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
     <i>
       <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
     </i>
     <i t="grand">
       <x/>
@@ -1550,9 +1492,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{60E7DC8F-EBD5-4EF2-8C69-711F44A9A38E}" name="Tabela dinâmica7" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A24:B28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{60E7DC8F-EBD5-4EF2-8C69-711F44A9A38E}" name="Tabela dinâmica7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A24:B30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -1572,13 +1514,13 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="8">
-        <item h="1" x="2"/>
-        <item h="1" x="1"/>
-        <item h="1" x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
         <item x="0"/>
-        <item h="1" x="3"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1600,9 +1542,103 @@
   <rowFields count="1">
     <field x="4"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="6">
     <i>
       <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de N° vendas" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8A558DFF-D10A-4D33-93F0-6DD9B5A17D1B}" name="Tabela dinâmica6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="E15:F21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="6"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
     </i>
     <i>
       <x v="3"/>
@@ -1643,15 +1679,15 @@
   <data>
     <tabular pivotCacheId="2124230227">
       <items count="9">
+        <i x="6" s="1"/>
+        <i x="3" s="1"/>
+        <i x="7" s="1"/>
         <i x="0" s="1"/>
         <i x="5" s="1"/>
         <i x="8" s="1"/>
+        <i x="4" s="1"/>
         <i x="2" s="1"/>
-        <i x="6" s="1" nd="1"/>
-        <i x="3" s="1" nd="1"/>
-        <i x="7" s="1" nd="1"/>
-        <i x="4" s="1" nd="1"/>
-        <i x="1" s="1" nd="1"/>
+        <i x="1" s="1"/>
       </items>
     </tabular>
   </data>
@@ -1669,13 +1705,13 @@
   <data>
     <tabular pivotCacheId="2124230227">
       <items count="7">
-        <i x="2"/>
-        <i x="1"/>
-        <i x="4"/>
+        <i x="2" s="1"/>
+        <i x="1" s="1"/>
+        <i x="4" s="1"/>
         <i x="0" s="1"/>
-        <i x="3"/>
-        <i x="5"/>
-        <i x="6"/>
+        <i x="3" s="1"/>
+        <i x="5" s="1"/>
+        <i x="6" s="1"/>
       </items>
     </tabular>
   </data>
@@ -2010,17 +2046,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2050,10 +2086,10 @@
       <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="34"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
@@ -2092,14 +2128,14 @@
       <c r="L3" s="7">
         <v>45</v>
       </c>
-      <c r="N3" s="29" t="s">
+      <c r="N3" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="29"/>
-      <c r="Q3" s="29" t="s">
+      <c r="O3" s="32"/>
+      <c r="Q3" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="29"/>
+      <c r="R3" s="32"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
@@ -2490,10 +2526,10 @@
         <f t="shared" si="2"/>
         <v>14850</v>
       </c>
-      <c r="K11" s="35" t="s">
+      <c r="K11" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="36"/>
+      <c r="L11" s="39"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
@@ -2532,14 +2568,14 @@
       <c r="L12" s="7">
         <v>15</v>
       </c>
-      <c r="N12" s="29" t="s">
+      <c r="N12" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="O12" s="29"/>
-      <c r="Q12" s="29" t="s">
+      <c r="O12" s="32"/>
+      <c r="Q12" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="R12" s="29"/>
+      <c r="R12" s="32"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
@@ -3248,13 +3284,13 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="39"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="31"/>
       <c r="H32" s="17" t="s">
         <v>8</v>
       </c>
@@ -3272,14 +3308,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K11:L11"/>
     <mergeCell ref="A32:G32"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="N12:O12"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K11:L11"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3288,10 +3324,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9852968D-266E-4E71-99D5-2DFA024144B9}">
-  <dimension ref="A3:F28"/>
+  <dimension ref="A3:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3316,10 +3352,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B4" s="40">
-        <v>83145</v>
+        <v>55845</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>37</v>
@@ -3330,10 +3366,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B5" s="40">
-        <v>83145</v>
+        <v>745</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>17</v>
@@ -3343,6 +3379,12 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="40">
+        <v>32200</v>
+      </c>
       <c r="E6" s="27" t="s">
         <v>14</v>
       </c>
@@ -3351,6 +3393,12 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="40">
+        <v>83145</v>
+      </c>
       <c r="E7" s="27" t="s">
         <v>21</v>
       </c>
@@ -3359,6 +3407,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="40">
+        <v>23730</v>
+      </c>
       <c r="E8" s="27" t="s">
         <v>11</v>
       </c>
@@ -3367,6 +3421,12 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="40">
+        <v>11400</v>
+      </c>
       <c r="E9" s="27" t="s">
         <v>18</v>
       </c>
@@ -3375,6 +3435,12 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="40">
+        <v>38290</v>
+      </c>
       <c r="E10" s="27" t="s">
         <v>23</v>
       </c>
@@ -3383,6 +3449,12 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="40">
+        <v>245355</v>
+      </c>
       <c r="E11" s="27" t="s">
         <v>24</v>
       </c>
@@ -3417,55 +3489,83 @@
         <v>44882</v>
       </c>
       <c r="B16" s="40">
-        <v>49890</v>
+        <v>50110</v>
       </c>
       <c r="E16" s="27" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="40">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
-        <v>44885</v>
+        <v>44883</v>
       </c>
       <c r="B17" s="40">
-        <v>24945</v>
+        <v>23565</v>
       </c>
       <c r="E17" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="40">
         <v>12</v>
-      </c>
-      <c r="F17" s="40">
-        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
+        <v>44884</v>
+      </c>
+      <c r="B18" s="40">
+        <v>38355</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="28">
+        <v>44885</v>
+      </c>
+      <c r="B19" s="40">
+        <v>71800</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="40">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="28">
         <v>44886</v>
       </c>
-      <c r="B18" s="40">
-        <v>8310</v>
-      </c>
-      <c r="E18" s="27" t="s">
+      <c r="B20" s="40">
+        <v>61525</v>
+      </c>
+      <c r="E20" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="F20" s="40">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="40">
-        <v>83145</v>
-      </c>
-      <c r="E19" s="27" t="s">
+      <c r="B21" s="40">
+        <v>245355</v>
+      </c>
+      <c r="E21" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="40">
-        <v>10</v>
+      <c r="F21" s="40">
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -3481,31 +3581,47 @@
         <v>44882</v>
       </c>
       <c r="B25" s="40">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
-        <v>44885</v>
+        <v>44883</v>
       </c>
       <c r="B26" s="40">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="28">
+        <v>44884</v>
+      </c>
+      <c r="B27" s="40">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="28">
+        <v>44885</v>
+      </c>
+      <c r="B28" s="40">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="28">
         <v>44886</v>
       </c>
-      <c r="B27" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
+      <c r="B29" s="40">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="40">
-        <v>10</v>
+      <c r="B30" s="40">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
